--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43155,6 +43155,43 @@
         </is>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43192,6 +43192,41 @@
         </is>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>1200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43227,6 +43227,43 @@
         <v>1200</v>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43264,6 +43264,43 @@
         </is>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43301,6 +43301,43 @@
         </is>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43338,6 +43338,43 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43375,6 +43375,43 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43412,6 +43412,43 @@
         </is>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43449,6 +43449,41 @@
         </is>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>9400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43484,6 +43484,43 @@
         <v>9400</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43521,6 +43521,78 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>57100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43593,6 +43593,78 @@
         <v>57100</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43665,6 +43665,43 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43702,6 +43702,41 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43737,6 +43737,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43772,6 +43772,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43807,6 +43807,78 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>9000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43879,6 +43879,41 @@
         <v>9000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43914,6 +43914,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1569"/>
+  <dimension ref="A1:I1570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55919,6 +55919,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1570">
+      <c r="A1570" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1570" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1570" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1570" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1570" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F1570" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G1570" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1570" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1570" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1570"/>
+  <dimension ref="A1:I1571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55954,6 +55954,41 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="1571">
+      <c r="A1571" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1571" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1571" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1571" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1571" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1571" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1571" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1571" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1571" t="n">
+        <v>50200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1571"/>
+  <dimension ref="A1:I1572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55989,6 +55989,43 @@
         <v>50200</v>
       </c>
     </row>
+    <row r="1572">
+      <c r="A1572" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1572" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1572" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1572" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1572" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1572" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1572" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1572" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1572" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1572"/>
+  <dimension ref="A1:I1573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56026,6 +56026,43 @@
         </is>
       </c>
     </row>
+    <row r="1573">
+      <c r="A1573" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1573" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1573" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1573" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1573" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1573" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1573" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1573" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1573" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1573"/>
+  <dimension ref="A1:I1574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56063,6 +56063,41 @@
         </is>
       </c>
     </row>
+    <row r="1574">
+      <c r="A1574" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1574" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1574" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1574" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1574" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1574" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1574" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1574" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1574" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1574"/>
+  <dimension ref="A1:I1575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56098,6 +56098,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1575">
+      <c r="A1575" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1575" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1575" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1575" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1575" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1575" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1575" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1575" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1575" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1575"/>
+  <dimension ref="A1:I1576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56135,6 +56135,41 @@
         </is>
       </c>
     </row>
+    <row r="1576">
+      <c r="A1576" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1576" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1576" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1576" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1576" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1576" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1576" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1576" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1576" t="n">
+        <v>2600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1576"/>
+  <dimension ref="A1:I1577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56170,6 +56170,41 @@
         <v>2600</v>
       </c>
     </row>
+    <row r="1577">
+      <c r="A1577" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1577" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1577" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1577" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1577" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1577" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1577" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1577" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1577" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1577"/>
+  <dimension ref="A1:I1578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56205,6 +56205,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1578">
+      <c r="A1578" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1578" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1578" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1578" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1578" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1578" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1578" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1578" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1578" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1578"/>
+  <dimension ref="A1:I1579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56242,6 +56242,43 @@
         </is>
       </c>
     </row>
+    <row r="1579">
+      <c r="A1579" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1579" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1579" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1579" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1579" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1579" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1579" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1579" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1579" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1579"/>
+  <dimension ref="A1:I1580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56279,6 +56279,41 @@
         </is>
       </c>
     </row>
+    <row r="1580">
+      <c r="A1580" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1580" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1580" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1580" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1580" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1580" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1580" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1580" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1580" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1580"/>
+  <dimension ref="A1:I1581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56314,6 +56314,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1581">
+      <c r="A1581" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1581" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1581" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1581" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1581" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1581" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1581" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1581" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1581" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1581"/>
+  <dimension ref="A1:I1582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56349,6 +56349,41 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="1582">
+      <c r="A1582" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1582" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1582" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D1582" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E1582" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1582" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1582" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1582" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1582" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2903"/>
+  <dimension ref="A1:I2904"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102619,6 +102619,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="2904">
+      <c r="A2904" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2904" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2904" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D2904" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E2904" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2904" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2904" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2904" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2904" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2904"/>
+  <dimension ref="A1:I2905"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102654,6 +102654,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="2905">
+      <c r="A2905" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2905" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2905" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D2905" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E2905" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F2905" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G2905" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H2905" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I2905" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2905"/>
+  <dimension ref="A1:I2906"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102689,6 +102689,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2906">
+      <c r="A2906" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2906" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2906" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D2906" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E2906" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F2906" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G2906" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H2906" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I2906" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2906"/>
+  <dimension ref="A1:I2907"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102726,6 +102726,43 @@
         </is>
       </c>
     </row>
+    <row r="2907">
+      <c r="A2907" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2907" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2907" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D2907" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E2907" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F2907" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G2907" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H2907" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I2907" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2907"/>
+  <dimension ref="A1:I2908"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102763,6 +102763,43 @@
         </is>
       </c>
     </row>
+    <row r="2908">
+      <c r="A2908" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2908" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2908" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D2908" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E2908" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F2908" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G2908" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H2908" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I2908" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2908"/>
+  <dimension ref="A1:I2909"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102800,6 +102800,43 @@
         </is>
       </c>
     </row>
+    <row r="2909">
+      <c r="A2909" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2909" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2909" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D2909" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E2909" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F2909" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G2909" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H2909" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I2909" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2909"/>
+  <dimension ref="A1:I2910"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102837,6 +102837,43 @@
         </is>
       </c>
     </row>
+    <row r="2910">
+      <c r="A2910" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2910" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2910" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D2910" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E2910" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F2910" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G2910" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H2910" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I2910" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2910"/>
+  <dimension ref="A1:I2911"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102874,6 +102874,41 @@
         </is>
       </c>
     </row>
+    <row r="2911">
+      <c r="A2911" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2911" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2911" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D2911" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E2911" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F2911" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G2911" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2911" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2911" t="n">
+        <v>33000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2911"/>
+  <dimension ref="A1:I2912"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102909,6 +102909,41 @@
         <v>33000</v>
       </c>
     </row>
+    <row r="2912">
+      <c r="A2912" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2912" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2912" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D2912" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E2912" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2912" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2912" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2912" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2912" t="n">
+        <v>3500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2912"/>
+  <dimension ref="A1:I2913"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102944,6 +102944,41 @@
         <v>3500</v>
       </c>
     </row>
+    <row r="2913">
+      <c r="A2913" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2913" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2913" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D2913" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E2913" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2913" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G2913" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2913" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I2913" t="n">
+        <v>13000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2913"/>
+  <dimension ref="A1:I2915"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102979,6 +102979,80 @@
         <v>13000</v>
       </c>
     </row>
+    <row r="2914">
+      <c r="A2914" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2914" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2914" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D2914" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E2914" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F2914" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G2914" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H2914" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I2914" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2915">
+      <c r="A2915" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2915" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2915" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D2915" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E2915" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F2915" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G2915" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H2915" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I2915" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2915"/>
+  <dimension ref="A1:I2916"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103053,6 +103053,41 @@
         </is>
       </c>
     </row>
+    <row r="2916">
+      <c r="A2916" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2916" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2916" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D2916" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E2916" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2916" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2916" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2916" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2916" t="n">
+        <v>3800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2916"/>
+  <dimension ref="A1:I2919"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103088,6 +103088,113 @@
         <v>3800</v>
       </c>
     </row>
+    <row r="2917">
+      <c r="A2917" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2917" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2917" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D2917" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E2917" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2917" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2917" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2917" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2917" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2918">
+      <c r="A2918" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2918" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2918" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D2918" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E2918" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2918" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2918" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2918" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2918" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2919">
+      <c r="A2919" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2919" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2919" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D2919" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E2919" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F2919" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G2919" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H2919" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I2919" t="n">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2919"/>
+  <dimension ref="A1:I2920"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103195,6 +103195,41 @@
         <v>500</v>
       </c>
     </row>
+    <row r="2920">
+      <c r="A2920" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2920" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2920" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D2920" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E2920" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F2920" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G2920" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H2920" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I2920" t="n">
+        <v>4900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2920"/>
+  <dimension ref="A1:I2921"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103230,6 +103230,43 @@
         <v>4900</v>
       </c>
     </row>
+    <row r="2921">
+      <c r="A2921" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2921" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2921" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D2921" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E2921" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F2921" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G2921" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H2921" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I2921" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7412.xlsx
+++ b/data/7412.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2921"/>
+  <dimension ref="A1:I2924"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103267,6 +103267,115 @@
         </is>
       </c>
     </row>
+    <row r="2922">
+      <c r="A2922" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2922" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2922" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D2922" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E2922" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F2922" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G2922" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H2922" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I2922" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2923">
+      <c r="A2923" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2923" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2923" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D2923" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E2923" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F2923" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G2923" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H2923" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I2923" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2924">
+      <c r="A2924" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2924" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2924" t="inlineStr">
+        <is>
+          <t>7412</t>
+        </is>
+      </c>
+      <c r="D2924" t="inlineStr">
+        <is>
+          <t>SHH</t>
+        </is>
+      </c>
+      <c r="E2924" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2924" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2924" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2924" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2924" t="n">
+        <v>1200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
